--- a/Data.xlsx
+++ b/Data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20382"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c9d2750ed4a5f047/Documents/GitHub/LED-Controller/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jbattye\Documents\GitHub\LED-Controller\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="32" documentId="8_{2034811C-1938-401F-82FD-6F75C17A5C69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5F998878-6D9D-47F1-9C11-07EFDEC3C5FE}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F1AACD1-E6A8-48ED-B996-BF1B92463F88}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{EADE6671-67BA-4BFF-9A10-7097BC33B287}"/>
   </bookViews>
@@ -23,21 +23,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="20">
   <si>
     <t>Data Size</t>
   </si>
@@ -78,37 +69,25 @@
     <t>Number of LED's</t>
   </si>
   <si>
-    <t>Color1</t>
-  </si>
-  <si>
-    <t>Color2</t>
-  </si>
-  <si>
-    <t>Color3</t>
-  </si>
-  <si>
-    <t>Color4</t>
-  </si>
-  <si>
-    <t>Color5</t>
-  </si>
-  <si>
-    <t>Color6</t>
-  </si>
-  <si>
-    <t>Color7</t>
-  </si>
-  <si>
-    <t>Color8</t>
-  </si>
-  <si>
-    <t>Color9</t>
-  </si>
-  <si>
-    <t>ColorN</t>
-  </si>
-  <si>
-    <t>n * 3</t>
+    <t>Function</t>
+  </si>
+  <si>
+    <t>Pin #</t>
+  </si>
+  <si>
+    <t>Start Color</t>
+  </si>
+  <si>
+    <t>Finish Color</t>
+  </si>
+  <si>
+    <t>Red</t>
+  </si>
+  <si>
+    <t>Green</t>
+  </si>
+  <si>
+    <t>Blue</t>
   </si>
 </sst>
 </file>
@@ -186,12 +165,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="2"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -511,10 +487,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6A168FA-3CD8-40F2-AB74-7FE16DCC33C2}">
-  <dimension ref="A1:K18"/>
+  <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K8" sqref="J3:K8"/>
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -530,22 +506,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="D1" s="3" t="s">
+      <c r="B1" s="2"/>
+      <c r="D1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="3"/>
-      <c r="G1" s="3" t="s">
+      <c r="E1" s="2"/>
+      <c r="G1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="3"/>
-      <c r="J1" s="3" t="s">
+      <c r="H1" s="2"/>
+      <c r="J1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="K1" s="3"/>
+      <c r="K1" s="2"/>
     </row>
     <row r="2" spans="1:11" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
@@ -713,7 +689,7 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="J9" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -721,74 +697,78 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="J10" t="s">
+        <v>16</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="K10">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="J11" t="s">
-        <v>15</v>
-      </c>
-      <c r="K11">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="J12" t="s">
-        <v>16</v>
-      </c>
-      <c r="K12">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="J13" t="s">
+      <c r="D13" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>1</v>
+      </c>
+      <c r="B14">
+        <v>3</v>
+      </c>
+      <c r="D14" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="G14" t="s">
         <v>17</v>
       </c>
-      <c r="K13">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H14">
+        <v>3</v>
+      </c>
       <c r="J14" t="s">
+        <v>3</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G15" t="s">
         <v>18</v>
       </c>
-      <c r="K14">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="J15" t="s">
+      <c r="H15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G16" t="s">
         <v>19</v>
       </c>
-      <c r="K15">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="J16" t="s">
-        <v>20</v>
-      </c>
-      <c r="K16">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J17" t="s">
-        <v>21</v>
-      </c>
-      <c r="K17">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J18" t="s">
-        <v>22</v>
-      </c>
-      <c r="K18" s="2" t="s">
-        <v>23</v>
+      <c r="H16">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
